--- a/packages/GateListTool/level.xlsx
+++ b/packages/GateListTool/level.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengyuewu/Documents/git/GitHubPros/AutoRing/packages/GateListTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF24937D-1BED-8D4D-838F-CD16BBE37D5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB0CA6D5-8FD7-5C4A-97FD-592983CC1029}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27540" windowHeight="17040" activeTab="2" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="27540" windowHeight="17040" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
   </bookViews>
   <sheets>
     <sheet name="GateList" sheetId="2" r:id="rId1"/>
     <sheet name="level1" sheetId="1" r:id="rId2"/>
     <sheet name="level2" sheetId="3" r:id="rId3"/>
+    <sheet name="level3" sheetId="4" r:id="rId4"/>
+    <sheet name="level4" sheetId="5" r:id="rId5"/>
+    <sheet name="level5" sheetId="6" r:id="rId6"/>
+    <sheet name="level6" sheetId="7" r:id="rId7"/>
+    <sheet name="level7" sheetId="8" r:id="rId8"/>
+    <sheet name="level8" sheetId="9" r:id="rId9"/>
+    <sheet name="level9" sheetId="10" r:id="rId10"/>
+    <sheet name="level10" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -74,6 +82,150 @@
 </comments>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F3942641-1A9B-FD4B-B9D7-FCC9596B20EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F91B9F12-18CE-DA44-BB1C-8BA86985B86F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>每行每列个数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8EA240E8-164F-9342-9BCA-82933106B6FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5E86F7A6-C36D-0943-88EF-B9E1805B8E25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>每行每列个数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -145,7 +297,10 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>表示圆形</t>
         </r>
@@ -170,7 +325,10 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>表示三角形</t>
         </r>
@@ -213,9 +371,590 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7E3EA7A4-E6BD-F841-A008-C518E057AF12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>每行每列个数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{877F620D-75B8-6847-8B69-6B0076A1B48B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9EF0D945-A04B-834B-8E9B-E44F7CA791B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>每行每列个数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B79FDFB7-D856-6F4D-B250-5F1CEA8C7116}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D61B6856-9EB1-A04E-990D-D1AFE732F2DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E44C928B-B2F9-5D48-879E-3908D7C70458}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{10958F53-11E0-9E49-9951-1B3115E0CA44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>每行每列个数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1E57F830-F331-E248-9E51-C89F4CD1BF53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5412CD7B-0837-B74A-992D-B28A8D575CE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2AEBB791-D1FC-974B-9357-847293DDEBAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A2DF13E9-87FA-3341-83AC-74D90162678C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{93562860-8BB5-A44C-B7ED-4EB66F862A96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4F771FFC-BB5D-294F-8D48-594BEE1B5498}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>每行每列个数</t>
         </r>
       </text>
     </comment>
@@ -224,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,9 +1040,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARMap1</t>
-  </si>
-  <si>
     <t>mapPrefabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,18 +1059,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARMap2</t>
+    <t>ARQ2</t>
+  </si>
+  <si>
+    <t>ARMapSquare</t>
+  </si>
+  <si>
+    <t>ARMapCircular</t>
+  </si>
+  <si>
+    <t>level3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARQ2</t>
+    <t>ARMapSquare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQ1</t>
+  </si>
+  <si>
+    <t>level4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level5</t>
+  </si>
+  <si>
+    <t>level6</t>
+  </si>
+  <si>
+    <t>level7</t>
+  </si>
+  <si>
+    <t>level8</t>
+  </si>
+  <si>
+    <t>level9</t>
+  </si>
+  <si>
+    <t>level10</t>
+  </si>
+  <si>
+    <t>ARMapCircular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,8 +1145,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -379,7 +1153,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -387,12 +1175,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -424,17 +1218,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457C292D-B198-314F-AA86-4E2B58D1BE4D}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -763,224 +1563,362 @@
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5E2CE1-E80E-D348-8E6C-9C267F6192B6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBD967-03C5-4D49-8898-6CFF6F43B90D}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26">
-      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26">
-      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26">
-      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="26">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="26">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="26">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="26">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="26">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="26">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="26">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="26">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1004,155 +1942,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>42</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>350</v>
       </c>
     </row>
@@ -1168,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0E7CBD-3C99-EA41-9FFC-474C14415834}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1178,47 +2116,678 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44FFF56-3B1C-A440-8C1B-6CAAACEC7345}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F71385-CDAA-0A4B-975D-9F5EC1D0B384}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE079BB-D586-AC40-9CA8-F054164AFBB6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB87B96-B827-8146-B6A4-2C0A71284D20}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C7" s="1">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333944D-A812-C845-91C3-17C9180336F3}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799B1ED0-AFAA-7A44-A9AB-60CDD340BF98}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/packages/GateListTool/level.xlsx
+++ b/packages/GateListTool/level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengyuewu/Documents/git/GitHubPros/AutoRing/packages/GateListTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB0CA6D5-8FD7-5C4A-97FD-592983CC1029}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FEEC6B6A-B7F5-0B41-B5DA-D07412FA0F26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="27540" windowHeight="17040" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="27540" windowHeight="17040" activeTab="10" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
   </bookViews>
   <sheets>
     <sheet name="GateList" sheetId="2" r:id="rId1"/>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,6 +1102,13 @@
   </si>
   <si>
     <t>ARMapCircular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARGold</t>
+  </si>
+  <si>
+    <t>ARGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1553,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457C292D-B198-314F-AA86-4E2B58D1BE4D}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1849,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBD967-03C5-4D49-8898-6CFF6F43B90D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1882,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -1924,6 +1931,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1933,7 +1941,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1980,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -2107,7 +2115,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2142,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
@@ -2222,7 +2230,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2266,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -2300,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -2459,7 +2467,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2520,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>

--- a/packages/GateListTool/level.xlsx
+++ b/packages/GateListTool/level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengyuewu/Documents/git/GitHubPros/AutoRing/packages/GateListTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FEEC6B6A-B7F5-0B41-B5DA-D07412FA0F26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0463C215-0152-B240-B14F-17B9EFBAD76C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="27540" windowHeight="17040" activeTab="10" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27540" windowHeight="17040" activeTab="1" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
   </bookViews>
   <sheets>
     <sheet name="GateList" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="level8" sheetId="9" r:id="rId9"/>
     <sheet name="level9" sheetId="10" r:id="rId10"/>
     <sheet name="level10" sheetId="11" r:id="rId11"/>
+    <sheet name="level11" sheetId="12" r:id="rId12"/>
+    <sheet name="level12" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -226,6 +228,190 @@
 </comments>
 </file>
 
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9084786F-83F6-DB41-9880-2A37A5F8F66D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7BD3B580-84FE-6048-8A8E-A9F9551A8D90}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{99C61061-344D-E74C-8CFB-F884D5DA1063}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5B2E28A-5FC4-014B-924B-54CB64FDD176}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>每行每列个数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -963,7 +1149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,6 +1295,50 @@
   </si>
   <si>
     <t>ARGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率球</t>
+    <rPh sb="0" eb="2">
+      <t>gai'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probabilitys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQ3#100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQ3#101</t>
+  </si>
+  <si>
+    <t>ARQ3#102</t>
+  </si>
+  <si>
+    <t>ARQ3#103</t>
+  </si>
+  <si>
+    <t>ARQ3#104</t>
+  </si>
+  <si>
+    <t>ARQ3#105</t>
+  </si>
+  <si>
+    <t>ARQ3#500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQ3#700</t>
+  </si>
+  <si>
+    <t>ARQ3#1</t>
+  </si>
+  <si>
+    <t>ARQ3#1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1219,13 +1449,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1483,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1799,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5E2CE1-E80E-D348-8E6C-9C267F6192B6}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1812,7 +2065,7 @@
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,8 +2075,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1833,8 +2089,11 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1843,6 +2102,9 @@
       </c>
       <c r="C3" s="1">
         <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1854,15 +2116,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBD967-03C5-4D49-8898-6CFF6F43B90D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="16.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1872,8 +2139,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,8 +2153,11 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1894,19 +2167,25 @@
       <c r="C3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="D3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1916,16 +2195,22 @@
       <c r="C5" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1936,20 +2221,291 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D1BE7-0FA8-D64D-BBD3-20F1EB610154}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>150</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>250</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>300</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>350</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7592B2-632A-FC41-98D4-C8F8CBCF63E8}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404703C-02B9-EF45-B700-82E422DE954A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,8 +2521,11 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,8 +2541,11 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1991,7 +2553,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1999,8 +2561,11 @@
       <c r="E3" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2016,90 +2581,8 @@
       <c r="E4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>350</v>
+      <c r="F4" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2112,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0E7CBD-3C99-EA41-9FFC-474C14415834}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2123,7 +2606,7 @@
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2133,8 +2616,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,8 +2630,11 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -2153,10 +2642,13 @@
         <v>34</v>
       </c>
       <c r="C3" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -2164,7 +2656,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2177,15 +2672,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44FFF56-3B1C-A440-8C1B-6CAAACEC7345}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,8 +2690,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,8 +2704,11 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -2216,6 +2717,9 @@
       </c>
       <c r="C3" s="1">
         <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2227,15 +2731,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F71385-CDAA-0A4B-975D-9F5EC1D0B384}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2251,8 +2755,11 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2268,8 +2775,11 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2285,8 +2795,11 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2302,8 +2815,11 @@
       <c r="E4" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2319,8 +2835,11 @@
       <c r="E5" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2336,8 +2855,11 @@
       <c r="E6" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2353,8 +2875,11 @@
       <c r="E7" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2370,8 +2895,11 @@
       <c r="E8" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2387,8 +2915,11 @@
       <c r="E9" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2403,6 +2934,9 @@
       </c>
       <c r="E10" s="2">
         <v>350</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2414,15 +2948,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE079BB-D586-AC40-9CA8-F054164AFBB6}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2432,8 +2966,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2443,8 +2980,11 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2453,6 +2993,9 @@
       </c>
       <c r="C3" s="1">
         <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2464,15 +3007,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB87B96-B827-8146-B6A4-2C0A71284D20}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F1" sqref="F1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2488,8 +3031,11 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2505,8 +3051,11 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2522,8 +3071,11 @@
       <c r="E3" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2539,8 +3091,11 @@
       <c r="E4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2556,8 +3111,11 @@
       <c r="E5" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2573,8 +3131,11 @@
       <c r="E6" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2590,8 +3151,11 @@
       <c r="E7" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2607,8 +3171,11 @@
       <c r="E8" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2623,6 +3190,9 @@
       </c>
       <c r="E9" s="2">
         <v>350</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2634,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333944D-A812-C845-91C3-17C9180336F3}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2646,7 +3216,7 @@
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2662,8 +3232,11 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2679,8 +3252,11 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2696,8 +3272,11 @@
       <c r="E3" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2713,8 +3292,11 @@
       <c r="E4" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2730,8 +3312,11 @@
       <c r="E5" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -2746,6 +3331,9 @@
       </c>
       <c r="E6" s="2">
         <v>350</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2757,15 +3345,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799B1ED0-AFAA-7A44-A9AB-60CDD340BF98}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2775,8 +3363,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2786,8 +3377,11 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2796,6 +3390,9 @@
       </c>
       <c r="C3" s="1">
         <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/packages/GateListTool/level.xlsx
+++ b/packages/GateListTool/level.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengyuewu/Documents/git/GitHubPros/AutoRing/packages/GateListTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0463C215-0152-B240-B14F-17B9EFBAD76C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C38870E-EB5A-2F4D-8DA1-319485285369}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27540" windowHeight="17040" activeTab="1" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="17040" activeTab="1" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
   </bookViews>
   <sheets>
-    <sheet name="GateList" sheetId="2" r:id="rId1"/>
-    <sheet name="level1" sheetId="1" r:id="rId2"/>
+    <sheet name="level1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
     <sheet name="level2" sheetId="3" r:id="rId3"/>
     <sheet name="level3" sheetId="4" r:id="rId4"/>
     <sheet name="level4" sheetId="5" r:id="rId5"/>
@@ -42,7 +42,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FCE2D3C5-9750-2347-9D21-9257E10D193A}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{0CE76D94-CA0B-674C-9880-05E59DE443CF}">
       <text>
         <r>
           <rPr>
@@ -66,17 +66,81 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>转圈圈</t>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{968A084B-9E66-854E-9707-546BC809C88E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -90,7 +154,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F3942641-1A9B-FD4B-B9D7-FCC9596B20EB}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F3942641-1A9B-FD4B-B9D7-FCC9596B20EB}">
       <text>
         <r>
           <rPr>
@@ -122,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F91B9F12-18CE-DA44-BB1C-8BA86985B86F}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F91B9F12-18CE-DA44-BB1C-8BA86985B86F}">
       <text>
         <r>
           <rPr>
@@ -162,7 +226,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8EA240E8-164F-9342-9BCA-82933106B6FC}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{8EA240E8-164F-9342-9BCA-82933106B6FC}">
       <text>
         <r>
           <rPr>
@@ -194,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5E86F7A6-C36D-0943-88EF-B9E1805B8E25}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5E86F7A6-C36D-0943-88EF-B9E1805B8E25}">
       <text>
         <r>
           <rPr>
@@ -234,7 +298,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9084786F-83F6-DB41-9880-2A37A5F8F66D}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{9084786F-83F6-DB41-9880-2A37A5F8F66D}">
       <text>
         <r>
           <rPr>
@@ -267,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7BD3B580-84FE-6048-8A8E-A9F9551A8D90}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{7BD3B580-84FE-6048-8A8E-A9F9551A8D90}">
       <text>
         <r>
           <rPr>
@@ -346,7 +410,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{99C61061-344D-E74C-8CFB-F884D5DA1063}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{99C61061-344D-E74C-8CFB-F884D5DA1063}">
       <text>
         <r>
           <rPr>
@@ -378,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5B2E28A-5FC4-014B-924B-54CB64FDD176}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B5B2E28A-5FC4-014B-924B-54CB64FDD176}">
       <text>
         <r>
           <rPr>
@@ -418,7 +482,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0CE76D94-CA0B-674C-9880-05E59DE443CF}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{0B6916A1-8E4D-5F4E-8A86-D0A37440A645}">
       <text>
         <r>
           <rPr>
@@ -451,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{968A084B-9E66-854E-9707-546BC809C88E}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{70B3C607-1B1C-E44D-949D-248E4955F062}">
       <text>
         <r>
           <rPr>
@@ -530,7 +594,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{837DF8BE-6D0B-C847-8538-92ACE40C2ED9}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{837DF8BE-6D0B-C847-8538-92ACE40C2ED9}">
       <text>
         <r>
           <rPr>
@@ -562,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7E3EA7A4-E6BD-F841-A008-C518E057AF12}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7E3EA7A4-E6BD-F841-A008-C518E057AF12}">
       <text>
         <r>
           <rPr>
@@ -602,7 +666,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{877F620D-75B8-6847-8B69-6B0076A1B48B}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{877F620D-75B8-6847-8B69-6B0076A1B48B}">
       <text>
         <r>
           <rPr>
@@ -634,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9EF0D945-A04B-834B-8E9B-E44F7CA791B5}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9EF0D945-A04B-834B-8E9B-E44F7CA791B5}">
       <text>
         <r>
           <rPr>
@@ -674,7 +738,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B79FDFB7-D856-6F4D-B250-5F1CEA8C7116}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B79FDFB7-D856-6F4D-B250-5F1CEA8C7116}">
       <text>
         <r>
           <rPr>
@@ -707,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D61B6856-9EB1-A04E-990D-D1AFE732F2DC}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D61B6856-9EB1-A04E-990D-D1AFE732F2DC}">
       <text>
         <r>
           <rPr>
@@ -786,7 +850,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E44C928B-B2F9-5D48-879E-3908D7C70458}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{E44C928B-B2F9-5D48-879E-3908D7C70458}">
       <text>
         <r>
           <rPr>
@@ -818,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{10958F53-11E0-9E49-9951-1B3115E0CA44}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{10958F53-11E0-9E49-9951-1B3115E0CA44}">
       <text>
         <r>
           <rPr>
@@ -858,7 +922,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1E57F830-F331-E248-9E51-C89F4CD1BF53}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1E57F830-F331-E248-9E51-C89F4CD1BF53}">
       <text>
         <r>
           <rPr>
@@ -891,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5412CD7B-0837-B74A-992D-B28A8D575CE1}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5412CD7B-0837-B74A-992D-B28A8D575CE1}">
       <text>
         <r>
           <rPr>
@@ -970,7 +1034,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2AEBB791-D1FC-974B-9357-847293DDEBAD}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2AEBB791-D1FC-974B-9357-847293DDEBAD}">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A2DF13E9-87FA-3341-83AC-74D90162678C}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A2DF13E9-87FA-3341-83AC-74D90162678C}">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1146,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{93562860-8BB5-A44C-B7ED-4EB66F862A96}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{93562860-8BB5-A44C-B7ED-4EB66F862A96}">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4F771FFC-BB5D-294F-8D48-594BEE1B5498}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{4F771FFC-BB5D-294F-8D48-594BEE1B5498}">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1181,52 +1245,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关卡</t>
-    <rPh sb="0" eb="2">
-      <t>g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据表</t>
-    <rPh sb="0" eb="2">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelTableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>shape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底板预制体</t>
-    <rPh sb="0" eb="2">
-      <t>di'ba</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapPrefabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1251,40 +1274,11 @@
     <t>ARMapSquare</t>
   </si>
   <si>
-    <t>ARMapCircular</t>
-  </si>
-  <si>
-    <t>level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ARMapSquare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARQ1</t>
-  </si>
-  <si>
-    <t>level4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level5</t>
-  </si>
-  <si>
-    <t>level6</t>
-  </si>
-  <si>
-    <t>level7</t>
-  </si>
-  <si>
-    <t>level8</t>
-  </si>
-  <si>
-    <t>level9</t>
-  </si>
-  <si>
-    <t>level10</t>
   </si>
   <si>
     <t>ARMapCircular</t>
@@ -1313,32 +1307,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARQ3#101</t>
-  </si>
-  <si>
-    <t>ARQ3#102</t>
-  </si>
-  <si>
-    <t>ARQ3#103</t>
-  </si>
-  <si>
-    <t>ARQ3#104</t>
-  </si>
-  <si>
-    <t>ARQ3#105</t>
-  </si>
-  <si>
-    <t>ARQ3#500</t>
+    <t>ARQ3#10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARQ3#700</t>
+    <t>ARQ3#50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARQ3#1</t>
+    <t>ARQ3#20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARQ3#1</t>
+    <t>ARQ3#30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQ3#40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQ3#60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQ3#70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQ3#10</t>
+  </si>
+  <si>
+    <t>ARQ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1396,37 +1400,16 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1449,24 +1432,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,19 +1448,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1810,252 +1770,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457C292D-B198-314F-AA86-4E2B58D1BE4D}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404703C-02B9-EF45-B700-82E422DE954A}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20">
-      <c r="A4" s="3">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20">
-      <c r="A5" s="3">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20">
-      <c r="A6" s="3">
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20">
-      <c r="A7" s="3">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20">
-      <c r="A8" s="3">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>250</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20">
-      <c r="A9" s="3">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>350</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5E2CE1-E80E-D348-8E6C-9C267F6192B6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2066,45 +1998,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2116,101 +2056,111 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBD967-03C5-4D49-8898-6CFF6F43B90D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="16.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9">
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="5">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>44</v>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2223,192 +2173,202 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D1BE7-0FA8-D64D-BBD3-20F1EB610154}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>50</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>46</v>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>150</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>250</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>45</v>
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>300</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>250</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>42</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>350</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>45</v>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2420,68 +2380,79 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7592B2-632A-FC41-98D4-C8F8CBCF63E8}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2492,113 +2463,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404703C-02B9-EF45-B700-82E422DE954A}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D18325-DDF3-524F-82EF-944E4BB9872A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>50</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>46</v>
+      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>300</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0E7CBD-3C99-EA41-9FFC-474C14415834}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2607,59 +2623,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2672,54 +2757,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44FFF56-3B1C-A440-8C1B-6CAAACEC7345}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2731,72 +2830,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F71385-CDAA-0A4B-975D-9F5EC1D0B384}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2804,139 +2896,159 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>200</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
+        <v>150</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
         <v>24</v>
       </c>
-      <c r="C8" s="1">
-        <v>30</v>
-      </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>250</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>300</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
+        <v>250</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>300</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
         <v>42</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>350</v>
       </c>
-      <c r="F10" t="s">
-        <v>43</v>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2948,54 +3060,93 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE079BB-D586-AC40-9CA8-F054164AFBB6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3007,192 +3158,202 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB87B96-B827-8146-B6A4-2C0A71284D20}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>150</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>200</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>250</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>300</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
+        <v>250</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
         <v>49</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>350</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3204,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333944D-A812-C845-91C3-17C9180336F3}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3217,123 +3378,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>250</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
+        <v>150</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>250</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>42</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>350</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3345,54 +3516,62 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799B1ED0-AFAA-7A44-A9AB-60CDD340BF98}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+      <selection activeCell="C4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/packages/GateListTool/level.xlsx
+++ b/packages/GateListTool/level.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengyuewu/Documents/git/GitHubPros/AutoRing/packages/GateListTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C38870E-EB5A-2F4D-8DA1-319485285369}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DCDFC79-355B-B44C-8214-DB66F68F89A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="17040" activeTab="1" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="17040" activeTab="12" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
-    <sheet name="level2" sheetId="3" r:id="rId3"/>
-    <sheet name="level3" sheetId="4" r:id="rId4"/>
-    <sheet name="level4" sheetId="5" r:id="rId5"/>
-    <sheet name="level5" sheetId="6" r:id="rId6"/>
-    <sheet name="level6" sheetId="7" r:id="rId7"/>
-    <sheet name="level7" sheetId="8" r:id="rId8"/>
-    <sheet name="level8" sheetId="9" r:id="rId9"/>
-    <sheet name="level9" sheetId="10" r:id="rId10"/>
-    <sheet name="level10" sheetId="11" r:id="rId11"/>
-    <sheet name="level11" sheetId="12" r:id="rId12"/>
-    <sheet name="level12" sheetId="13" r:id="rId13"/>
+    <sheet name="level2" sheetId="3" r:id="rId2"/>
+    <sheet name="level3" sheetId="4" r:id="rId3"/>
+    <sheet name="level4" sheetId="5" r:id="rId4"/>
+    <sheet name="level5" sheetId="6" r:id="rId5"/>
+    <sheet name="level6" sheetId="7" r:id="rId6"/>
+    <sheet name="level7" sheetId="8" r:id="rId7"/>
+    <sheet name="level8" sheetId="9" r:id="rId8"/>
+    <sheet name="level9" sheetId="10" r:id="rId9"/>
+    <sheet name="level10" sheetId="11" r:id="rId10"/>
+    <sheet name="level11" sheetId="12" r:id="rId11"/>
+    <sheet name="level12" sheetId="13" r:id="rId12"/>
+    <sheet name="level13" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -154,7 +154,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F3942641-1A9B-FD4B-B9D7-FCC9596B20EB}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{8EA240E8-164F-9342-9BCA-82933106B6FC}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F91B9F12-18CE-DA44-BB1C-8BA86985B86F}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5E86F7A6-C36D-0943-88EF-B9E1805B8E25}">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{8EA240E8-164F-9342-9BCA-82933106B6FC}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{9084786F-83F6-DB41-9880-2A37A5F8F66D}">
       <text>
         <r>
           <rPr>
@@ -253,12 +253,13 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5E86F7A6-C36D-0943-88EF-B9E1805B8E25}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{7BD3B580-84FE-6048-8A8E-A9F9551A8D90}">
       <text>
         <r>
           <rPr>
@@ -284,7 +285,46 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>每行每列个数</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -298,7 +338,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{9084786F-83F6-DB41-9880-2A37A5F8F66D}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{99C61061-344D-E74C-8CFB-F884D5DA1063}">
       <text>
         <r>
           <rPr>
@@ -325,13 +365,12 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{7BD3B580-84FE-6048-8A8E-A9F9551A8D90}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B5B2E28A-5FC4-014B-924B-54CB64FDD176}">
       <text>
         <r>
           <rPr>
@@ -357,46 +396,7 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示圆形</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示三角形</t>
+          <t>每行每列个数</t>
         </r>
       </text>
     </comment>
@@ -410,7 +410,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{99C61061-344D-E74C-8CFB-F884D5DA1063}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{0B6916A1-8E4D-5F4E-8A86-D0A37440A645}">
       <text>
         <r>
           <rPr>
@@ -437,12 +437,13 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B5B2E28A-5FC4-014B-924B-54CB64FDD176}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{70B3C607-1B1C-E44D-949D-248E4955F062}">
       <text>
         <r>
           <rPr>
@@ -468,7 +469,46 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>每行每列个数</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -482,7 +522,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{0B6916A1-8E4D-5F4E-8A86-D0A37440A645}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{837DF8BE-6D0B-C847-8538-92ACE40C2ED9}">
       <text>
         <r>
           <rPr>
@@ -509,13 +549,12 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{70B3C607-1B1C-E44D-949D-248E4955F062}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7E3EA7A4-E6BD-F841-A008-C518E057AF12}">
       <text>
         <r>
           <rPr>
@@ -541,46 +580,7 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示圆形</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示三角形</t>
+          <t>每行每列个数</t>
         </r>
       </text>
     </comment>
@@ -594,7 +594,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{837DF8BE-6D0B-C847-8538-92ACE40C2ED9}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{877F620D-75B8-6847-8B69-6B0076A1B48B}">
       <text>
         <r>
           <rPr>
@@ -626,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7E3EA7A4-E6BD-F841-A008-C518E057AF12}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9EF0D945-A04B-834B-8E9B-E44F7CA791B5}">
       <text>
         <r>
           <rPr>
@@ -666,7 +666,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{877F620D-75B8-6847-8B69-6B0076A1B48B}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B79FDFB7-D856-6F4D-B250-5F1CEA8C7116}">
       <text>
         <r>
           <rPr>
@@ -693,12 +693,13 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9EF0D945-A04B-834B-8E9B-E44F7CA791B5}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D61B6856-9EB1-A04E-990D-D1AFE732F2DC}">
       <text>
         <r>
           <rPr>
@@ -724,7 +725,44 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>每行每列个数</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -738,7 +776,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B79FDFB7-D856-6F4D-B250-5F1CEA8C7116}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{E44C928B-B2F9-5D48-879E-3908D7C70458}">
       <text>
         <r>
           <rPr>
@@ -765,13 +803,12 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D61B6856-9EB1-A04E-990D-D1AFE732F2DC}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{10958F53-11E0-9E49-9951-1B3115E0CA44}">
       <text>
         <r>
           <rPr>
@@ -797,46 +834,7 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示圆形</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示三角形</t>
+          <t>每行每列个数</t>
         </r>
       </text>
     </comment>
@@ -850,7 +848,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{E44C928B-B2F9-5D48-879E-3908D7C70458}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1E57F830-F331-E248-9E51-C89F4CD1BF53}">
       <text>
         <r>
           <rPr>
@@ -877,12 +875,13 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{10958F53-11E0-9E49-9951-1B3115E0CA44}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5412CD7B-0837-B74A-992D-B28A8D575CE1}">
       <text>
         <r>
           <rPr>
@@ -908,7 +907,46 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>每行每列个数</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -922,7 +960,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1E57F830-F331-E248-9E51-C89F4CD1BF53}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2AEBB791-D1FC-974B-9357-847293DDEBAD}">
       <text>
         <r>
           <rPr>
@@ -955,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5412CD7B-0837-B74A-992D-B28A8D575CE1}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A2DF13E9-87FA-3341-83AC-74D90162678C}">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1072,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2AEBB791-D1FC-974B-9357-847293DDEBAD}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{93562860-8BB5-A44C-B7ED-4EB66F862A96}">
       <text>
         <r>
           <rPr>
@@ -1061,13 +1099,12 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A2DF13E9-87FA-3341-83AC-74D90162678C}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{4F771FFC-BB5D-294F-8D48-594BEE1B5498}">
       <text>
         <r>
           <rPr>
@@ -1093,46 +1130,7 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示圆形</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示三角形</t>
+          <t>每行每列个数</t>
         </r>
       </text>
     </comment>
@@ -1146,7 +1144,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{93562860-8BB5-A44C-B7ED-4EB66F862A96}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F3942641-1A9B-FD4B-B9D7-FCC9596B20EB}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{4F771FFC-BB5D-294F-8D48-594BEE1B5498}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F91B9F12-18CE-DA44-BB1C-8BA86985B86F}">
       <text>
         <r>
           <rPr>
@@ -1213,7 +1211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1278,9 +1276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARQ1</t>
-  </si>
-  <si>
     <t>ARMapCircular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1303,47 +1298,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARQ3#100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARQ3#10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARQ3#50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARQ3#20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARQ3#30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARQ3#40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARQ3#60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARQ3#70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARQ3#10</t>
-  </si>
-  <si>
     <t>ARQ3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
+    <t>ARQ3</t>
+  </si>
+  <si>
+    <t>ARQ4</t>
+  </si>
+  <si>
+    <t>ARQ5</t>
+  </si>
+  <si>
+    <t>ARQ6</t>
+  </si>
+  <si>
+    <t>ARQ7</t>
+  </si>
+  <si>
+    <t>ARQHurt1#10</t>
+  </si>
+  <si>
+    <t>ARQHurt1#10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQHurt1#20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQHurt1#11</t>
+  </si>
+  <si>
+    <t>ARQHurt1#12</t>
+  </si>
+  <si>
+    <t>ARQHurt1#13</t>
+  </si>
+  <si>
+    <t>ARQHurt1#14</t>
+  </si>
+  <si>
+    <t>ARQHurt1#15</t>
+  </si>
+  <si>
+    <t>ARQHurt1#16</t>
+  </si>
+  <si>
+    <t>ARQHurt1#17</t>
   </si>
 </sst>
 </file>
@@ -1774,19 +1777,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1811,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1831,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1839,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -1851,7 +1854,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1859,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -1871,7 +1874,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1879,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -1891,7 +1894,7 @@
         <v>150</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1899,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>24</v>
@@ -1911,7 +1914,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1919,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -1931,7 +1934,7 @@
         <v>250</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1939,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>36</v>
@@ -1951,7 +1954,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1959,7 +1962,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>42</v>
@@ -1971,7 +1974,7 @@
         <v>350</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1983,83 +1986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5E2CE1-E80E-D348-8E6C-9C267F6192B6}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBD967-03C5-4D49-8898-6CFF6F43B90D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2067,7 +1998,7 @@
     <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -2090,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2104,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2112,13 +2043,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2131,8 +2062,8 @@
       <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2145,8 +2076,8 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2154,13 +2085,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2171,19 +2102,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D1BE7-0FA8-D64D-BBD3-20F1EB610154}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:F10"/>
+      <selection activeCell="F4" sqref="F4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2208,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2228,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2236,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -2248,7 +2182,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2256,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -2268,7 +2202,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2276,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -2288,7 +2222,7 @@
         <v>150</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2296,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>24</v>
@@ -2308,7 +2242,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -2328,7 +2262,7 @@
         <v>250</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2336,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>36</v>
@@ -2348,7 +2282,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2356,7 +2290,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>42</v>
@@ -2368,6 +2302,91 @@
         <v>350</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7592B2-632A-FC41-98D4-C8F8CBCF63E8}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2379,27 +2398,29 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7592B2-632A-FC41-98D4-C8F8CBCF63E8}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D18325-DDF3-524F-82EF-944E4BB9872A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2410,10 +2431,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2424,35 +2451,93 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>300</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2463,163 +2548,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D18325-DDF3-524F-82EF-944E4BB9872A}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>300</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0E7CBD-3C99-EA41-9FFC-474C14415834}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2641,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2655,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2669,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2677,13 +2616,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2691,13 +2630,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2705,13 +2644,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2719,13 +2658,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2733,18 +2672,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2755,12 +2689,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44FFF56-3B1C-A440-8C1B-6CAAACEC7345}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2768,7 +2702,7 @@
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2790,7 +2724,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2804,12 +2738,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2818,7 +2752,239 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F71385-CDAA-0A4B-975D-9F5EC1D0B384}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>150</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>250</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>300</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>350</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2829,29 +2995,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F71385-CDAA-0A4B-975D-9F5EC1D0B384}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE079BB-D586-AC40-9CA8-F054164AFBB6}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2862,16 +3027,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2882,58 +3041,40 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -2941,114 +3082,8 @@
       <c r="C6" s="1">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>150</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>200</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>250</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>300</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>350</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3059,27 +3094,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE079BB-D586-AC40-9CA8-F054164AFBB6}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB87B96-B827-8146-B6A4-2C0A71284D20}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F4" sqref="F4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3090,10 +3127,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3104,49 +3147,153 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>250</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
+      <c r="C10" s="1">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>350</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3157,18 +3304,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB87B96-B827-8146-B6A4-2C0A71284D20}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333944D-A812-C845-91C3-17C9180336F3}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3193,7 +3345,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3213,7 +3365,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3221,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3233,7 +3385,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3241,19 +3393,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3261,19 +3413,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3281,79 +3433,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>250</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>300</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>350</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3364,30 +3456,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333944D-A812-C845-91C3-17C9180336F3}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799B1ED0-AFAA-7A44-A9AB-60CDD340BF98}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3398,16 +3487,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,16 +3501,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3435,76 +3512,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>150</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>250</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>350</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3515,14 +3526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799B1ED0-AFAA-7A44-A9AB-60CDD340BF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5E2CE1-E80E-D348-8E6C-9C267F6192B6}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:D4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -3543,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3557,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3565,13 +3582,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/packages/GateListTool/level.xlsx
+++ b/packages/GateListTool/level.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengyuewu/Documents/git/GitHubPros/AutoRing/packages/GateListTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DCDFC79-355B-B44C-8214-DB66F68F89A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57B42D80-CEC0-5943-BD65-62A92F1AA79A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="17040" activeTab="12" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="17040" activeTab="2" xr2:uid="{0F1DE6FC-F60C-C54D-8C6A-81CF1E358E58}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
-    <sheet name="level2" sheetId="3" r:id="rId2"/>
-    <sheet name="level3" sheetId="4" r:id="rId3"/>
-    <sheet name="level4" sheetId="5" r:id="rId4"/>
-    <sheet name="level5" sheetId="6" r:id="rId5"/>
-    <sheet name="level6" sheetId="7" r:id="rId6"/>
-    <sheet name="level7" sheetId="8" r:id="rId7"/>
-    <sheet name="level8" sheetId="9" r:id="rId8"/>
-    <sheet name="level9" sheetId="10" r:id="rId9"/>
-    <sheet name="level10" sheetId="11" r:id="rId10"/>
-    <sheet name="level11" sheetId="12" r:id="rId11"/>
-    <sheet name="level12" sheetId="13" r:id="rId12"/>
-    <sheet name="level13" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId3"/>
+    <sheet name="level2" sheetId="3" r:id="rId4"/>
+    <sheet name="level3" sheetId="4" r:id="rId5"/>
+    <sheet name="level4" sheetId="5" r:id="rId6"/>
+    <sheet name="level5" sheetId="6" r:id="rId7"/>
+    <sheet name="level6" sheetId="7" r:id="rId8"/>
+    <sheet name="level7" sheetId="8" r:id="rId9"/>
+    <sheet name="level8" sheetId="9" r:id="rId10"/>
+    <sheet name="level9" sheetId="10" r:id="rId11"/>
+    <sheet name="level10" sheetId="11" r:id="rId12"/>
+    <sheet name="level11" sheetId="12" r:id="rId13"/>
+    <sheet name="level12" sheetId="13" r:id="rId14"/>
+    <sheet name="level13" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -154,7 +156,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{8EA240E8-164F-9342-9BCA-82933106B6FC}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{93562860-8BB5-A44C-B7ED-4EB66F862A96}">
       <text>
         <r>
           <rPr>
@@ -186,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5E86F7A6-C36D-0943-88EF-B9E1805B8E25}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{4F771FFC-BB5D-294F-8D48-594BEE1B5498}">
       <text>
         <r>
           <rPr>
@@ -226,7 +228,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{9084786F-83F6-DB41-9880-2A37A5F8F66D}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F3942641-1A9B-FD4B-B9D7-FCC9596B20EB}">
       <text>
         <r>
           <rPr>
@@ -253,13 +255,12 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{7BD3B580-84FE-6048-8A8E-A9F9551A8D90}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F91B9F12-18CE-DA44-BB1C-8BA86985B86F}">
       <text>
         <r>
           <rPr>
@@ -285,46 +286,7 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示圆形</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示三角形</t>
+          <t>每行每列个数</t>
         </r>
       </text>
     </comment>
@@ -338,7 +300,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{99C61061-344D-E74C-8CFB-F884D5DA1063}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{8EA240E8-164F-9342-9BCA-82933106B6FC}">
       <text>
         <r>
           <rPr>
@@ -370,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B5B2E28A-5FC4-014B-924B-54CB64FDD176}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5E86F7A6-C36D-0943-88EF-B9E1805B8E25}">
       <text>
         <r>
           <rPr>
@@ -410,6 +372,190 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{9084786F-83F6-DB41-9880-2A37A5F8F66D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{7BD3B580-84FE-6048-8A8E-A9F9551A8D90}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{99C61061-344D-E74C-8CFB-F884D5DA1063}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预设体名字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B5B2E28A-5FC4-014B-924B-54CB64FDD176}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>每行每列个数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{0B6916A1-8E4D-5F4E-8A86-D0A37440A645}">
       <text>
         <r>
@@ -522,7 +668,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{837DF8BE-6D0B-C847-8538-92ACE40C2ED9}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{30DFCD1B-3F8D-8245-8899-ED1B85008B4C}">
       <text>
         <r>
           <rPr>
@@ -549,12 +695,13 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7E3EA7A4-E6BD-F841-A008-C518E057AF12}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{B3138ED8-D237-6442-8C0D-0B23EDDA1159}">
       <text>
         <r>
           <rPr>
@@ -580,7 +727,46 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>每行每列个数</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -594,7 +780,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{877F620D-75B8-6847-8B69-6B0076A1B48B}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F7FE35BB-C144-5848-9FA0-6F36E2A20B18}">
       <text>
         <r>
           <rPr>
@@ -621,12 +807,13 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9EF0D945-A04B-834B-8E9B-E44F7CA791B5}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{21F9F16F-F2F3-9241-A0D1-F3A9073CF240}">
       <text>
         <r>
           <rPr>
@@ -652,7 +839,46 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>每行每列个数</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -666,7 +892,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B79FDFB7-D856-6F4D-B250-5F1CEA8C7116}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{837DF8BE-6D0B-C847-8538-92ACE40C2ED9}">
       <text>
         <r>
           <rPr>
@@ -693,13 +919,12 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D61B6856-9EB1-A04E-990D-D1AFE732F2DC}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7E3EA7A4-E6BD-F841-A008-C518E057AF12}">
       <text>
         <r>
           <rPr>
@@ -725,44 +950,7 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>表示圆形</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>表示三角形</t>
+          <t>每行每列个数</t>
         </r>
       </text>
     </comment>
@@ -776,7 +964,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{E44C928B-B2F9-5D48-879E-3908D7C70458}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{877F620D-75B8-6847-8B69-6B0076A1B48B}">
       <text>
         <r>
           <rPr>
@@ -808,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{10958F53-11E0-9E49-9951-1B3115E0CA44}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{9EF0D945-A04B-834B-8E9B-E44F7CA791B5}">
       <text>
         <r>
           <rPr>
@@ -848,7 +1036,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1E57F830-F331-E248-9E51-C89F4CD1BF53}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B79FDFB7-D856-6F4D-B250-5F1CEA8C7116}">
       <text>
         <r>
           <rPr>
@@ -881,7 +1069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5412CD7B-0837-B74A-992D-B28A8D575CE1}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D61B6856-9EB1-A04E-990D-D1AFE732F2DC}">
       <text>
         <r>
           <rPr>
@@ -916,7 +1104,6 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>表示圆形</t>
         </r>
@@ -944,7 +1131,6 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>表示三角形</t>
         </r>
@@ -960,7 +1146,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2AEBB791-D1FC-974B-9357-847293DDEBAD}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{E44C928B-B2F9-5D48-879E-3908D7C70458}">
       <text>
         <r>
           <rPr>
@@ -987,13 +1173,12 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A2DF13E9-87FA-3341-83AC-74D90162678C}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{10958F53-11E0-9E49-9951-1B3115E0CA44}">
       <text>
         <r>
           <rPr>
@@ -1019,46 +1204,7 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示圆形</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>表示三角形</t>
+          <t>每行每列个数</t>
         </r>
       </text>
     </comment>
@@ -1072,7 +1218,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{93562860-8BB5-A44C-B7ED-4EB66F862A96}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1E57F830-F331-E248-9E51-C89F4CD1BF53}">
       <text>
         <r>
           <rPr>
@@ -1099,12 +1245,13 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{4F771FFC-BB5D-294F-8D48-594BEE1B5498}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5412CD7B-0837-B74A-992D-B28A8D575CE1}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1277,46 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>每行每列个数</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -1144,7 +1330,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F3942641-1A9B-FD4B-B9D7-FCC9596B20EB}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2AEBB791-D1FC-974B-9357-847293DDEBAD}">
       <text>
         <r>
           <rPr>
@@ -1171,12 +1357,13 @@
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
+            <scheme val="minor"/>
           </rPr>
           <t>预设体名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F91B9F12-18CE-DA44-BB1C-8BA86985B86F}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A2DF13E9-87FA-3341-83AC-74D90162678C}">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1389,46 @@
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
           </rPr>
-          <t>每行每列个数</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示圆形</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>表示三角形</t>
         </r>
       </text>
     </comment>
@@ -1211,7 +1437,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1347,6 +1573,48 @@
   </si>
   <si>
     <t>ARQHurt1#17</t>
+  </si>
+  <si>
+    <t>ARQ8</t>
+  </si>
+  <si>
+    <t>ARQ9</t>
+  </si>
+  <si>
+    <t>ARGold#500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQHurt1#40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQHurt1#60</t>
+  </si>
+  <si>
+    <t>ARQHurt1#80</t>
+  </si>
+  <si>
+    <t>ARQHurt1#100</t>
+  </si>
+  <si>
+    <t>ARQHurt1#120</t>
+  </si>
+  <si>
+    <t>ARQHurt1#140</t>
+  </si>
+  <si>
+    <t>ARQHurt1#50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARQHurt1#110</t>
+  </si>
+  <si>
+    <t>ARQHurt1#170</t>
+  </si>
+  <si>
+    <t>ARQHurt1#200</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +2045,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F10" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1986,11 +2254,154 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799B1ED0-AFAA-7A44-A9AB-60CDD340BF98}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5E2CE1-E80E-D348-8E6C-9C267F6192B6}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBD967-03C5-4D49-8898-6CFF6F43B90D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D7"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2102,12 +2513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D1BE7-0FA8-D64D-BBD3-20F1EB610154}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F10"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2312,12 +2723,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7592B2-632A-FC41-98D4-C8F8CBCF63E8}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2397,12 +2808,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D18325-DDF3-524F-82EF-944E4BB9872A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2548,11 +2959,431 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29758D66-DEAC-9F4F-A42F-83D0B1CEE298}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>250</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>350</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40CE2A9-4AB4-2F4E-89B8-7667DF04EF3F}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>250</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>350</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0E7CBD-3C99-EA41-9FFC-474C14415834}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2689,12 +3520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44FFF56-3B1C-A440-8C1B-6CAAACEC7345}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2752,7 +3583,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2762,12 +3593,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F71385-CDAA-0A4B-975D-9F5EC1D0B384}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2834,14 +3665,14 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>26</v>
@@ -2855,16 +3686,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,16 +3706,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2895,16 +3726,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2915,16 +3746,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2935,16 +3766,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2955,16 +3786,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2975,16 +3806,56 @@
         <v>24</v>
       </c>
       <c r="C11" s="1">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>300</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
         <v>42</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>350</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>400</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2994,12 +3865,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE079BB-D586-AC40-9CA8-F054164AFBB6}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3093,12 +3964,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB87B96-B827-8146-B6A4-2C0A71284D20}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F10"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3303,12 +4174,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333944D-A812-C845-91C3-17C9180336F3}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3453,147 +4324,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799B1ED0-AFAA-7A44-A9AB-60CDD340BF98}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5E2CE1-E80E-D348-8E6C-9C267F6192B6}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>